--- a/assets/Consolidated list of API's.xlsx
+++ b/assets/Consolidated list of API's.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaizenat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyApplication\lupa\Lupa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -576,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,8 +589,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -599,29 +605,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -629,12 +624,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -649,11 +661,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,892 +955,901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="144" thickBot="1">
-      <c r="B3" s="1" t="s">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="100.5">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="144" thickBot="1">
-      <c r="B4" s="1" t="s">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="100.5">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="201" thickBot="1">
-      <c r="B5" s="1" t="s">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="114.75">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="141.75" thickBot="1">
-      <c r="B6" s="1" t="s">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="141">
+      <c r="B6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="115.5" thickBot="1">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="72">
+      <c r="B7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="129.75" thickBot="1">
-      <c r="B8" s="1" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="100.5">
+      <c r="B8" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B9" s="1" t="s">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1">
+      <c r="B9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="129" thickBot="1">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="77.25">
+      <c r="B10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="39.75" thickBot="1">
-      <c r="B11" s="1" t="s">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="39">
+      <c r="B11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="144" thickBot="1">
-      <c r="B12" s="1" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="86.25">
+      <c r="B12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B13" s="1" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1">
+      <c r="B13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="87" thickBot="1">
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="57.75">
+      <c r="B14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="201" thickBot="1">
-      <c r="B15" s="1" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="129">
+      <c r="B15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="90.75" thickBot="1">
-      <c r="B16" s="1" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="51.75">
+      <c r="B16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="52.5" thickBot="1">
-      <c r="B17" s="1" t="s">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="26.25">
+      <c r="B17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="192.75" thickBot="1">
-      <c r="B18" s="1" t="s">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="128.25">
+      <c r="B18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="58.5" thickBot="1">
-      <c r="B19" s="1" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="29.25">
+      <c r="B19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="52.5" thickBot="1">
-      <c r="B20" s="1" t="s">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="30">
+      <c r="B20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="101.25" thickBot="1">
-      <c r="B21" s="1" t="s">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="57.75">
+      <c r="B21" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="172.5" thickBot="1">
-      <c r="B22" s="1" t="s">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="114.75">
+      <c r="B22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="78" thickBot="1">
-      <c r="B23" s="1" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="51.75">
+      <c r="B23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="78" thickBot="1">
-      <c r="B24" s="1" t="s">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="51.75">
+      <c r="B24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="39.75" thickBot="1">
-      <c r="B25" s="1" t="s">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="26.25">
+      <c r="B25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="26.25">
-      <c r="B26" s="7" t="s">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="45">
+      <c r="B26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51.75">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="51.75">
+      <c r="B27" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:7" s="2" customFormat="1">
+      <c r="B28" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="B29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="26.25">
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="30">
       <c r="B30" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="167.25" thickBot="1">
-      <c r="A32" t="s">
+    <row r="31" spans="1:7" s="2" customFormat="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="102.75">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="129" thickBot="1">
-      <c r="B33" s="1" t="s">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="77.25">
+      <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="229.5" thickBot="1">
-      <c r="B34" s="1" t="s">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="143.25">
+      <c r="B34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="87" thickBot="1">
-      <c r="B35" s="1" t="s">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="72">
+      <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="90.75" thickBot="1">
-      <c r="B36" s="1" t="s">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="51.75">
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="90.75" thickBot="1">
-      <c r="B37" s="1" t="s">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="51.75">
+      <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B38" s="9" t="s">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="75">
+      <c r="B38" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B39" s="9" t="s">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="B39" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="27" thickBot="1">
-      <c r="B40" s="9" t="s">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="105">
+      <c r="B40" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B41" s="9" t="s">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="30">
+      <c r="B41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1">
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B43" s="9" t="s">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1">
+      <c r="E42" s="15"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="30">
+      <c r="B43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" s="9" t="s">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1">
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="30">
+      <c r="B45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B47" t="s">
+    <row r="46" spans="1:7" s="2" customFormat="1">
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="45">
+      <c r="B47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="101.25" thickBot="1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="72">
+      <c r="A48" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="52.5" thickBot="1">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="2:6" s="6" customFormat="1" ht="26.25">
+      <c r="B49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="144" thickBot="1">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="2:6" s="6" customFormat="1" ht="100.5">
+      <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="78" thickBot="1">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="2:6" s="6" customFormat="1" ht="51.75">
+      <c r="B51" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="129" thickBot="1">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="2:6" s="6" customFormat="1" ht="77.25">
+      <c r="B52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="D52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="39.75" thickBot="1">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="2:6" s="6" customFormat="1" ht="39">
+      <c r="B53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="9" t="s">
+    <row r="54" spans="2:6" s="6" customFormat="1" ht="45">
+      <c r="B54" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="2:6" s="6" customFormat="1" ht="30">
+      <c r="B55" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="6" t="s">
         <v>114</v>
       </c>
     </row>

--- a/assets/Consolidated list of API's.xlsx
+++ b/assets/Consolidated list of API's.xlsx
@@ -955,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>

--- a/assets/Consolidated list of API's.xlsx
+++ b/assets/Consolidated list of API's.xlsx
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,21 +1210,21 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="129">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="129">
+      <c r="B15" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="51.75">
       <c r="B16" s="7" t="s">
@@ -1262,39 +1262,39 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="128.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="128.25">
+      <c r="B18" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="29.25">
-      <c r="B19" s="3" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="29.25">
+      <c r="B19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="B20" s="3" t="s">

--- a/assets/Consolidated list of API's.xlsx
+++ b/assets/Consolidated list of API's.xlsx
@@ -624,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -656,9 +656,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -955,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1184,15 +1181,15 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" s="6" customFormat="1">
+      <c r="B13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="57.75">
       <c r="B14" s="7" t="s">
@@ -1296,160 +1293,160 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="30">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="B20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="57.75">
-      <c r="B21" s="3" t="s">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="57.75">
+      <c r="B21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="114.75">
-      <c r="B22" s="3" t="s">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="114.75">
+      <c r="B22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="51.75">
-      <c r="B23" s="3" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="51.75">
+      <c r="B23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="51.75">
-      <c r="B24" s="3" t="s">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="51.75">
+      <c r="B24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="26.25">
-      <c r="B25" s="3" t="s">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="26.25">
+      <c r="B25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="45">
-      <c r="B26" s="5" t="s">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="B26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="51.75">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="51.75">
+      <c r="B27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:7" s="6" customFormat="1">
+      <c r="B28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="B29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>105</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1457,13 +1454,13 @@
       <c r="B30" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
@@ -1472,9 +1469,9 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1">
       <c r="B31" s="5"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" ht="102.75">
@@ -1590,10 +1587,10 @@
       <c r="B38" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -1605,13 +1602,13 @@
       <c r="B39" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>118</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -1623,13 +1620,13 @@
       <c r="B40" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>122</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -1641,13 +1638,13 @@
       <c r="B41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>125</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -1656,20 +1653,20 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1">
-      <c r="E42" s="15"/>
+      <c r="E42" s="14"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="B43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -1678,16 +1675,16 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1">
-      <c r="E44" s="15"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="B45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>131</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -1695,19 +1692,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1">
-      <c r="E46" s="15"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="45">
       <c r="B47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -1778,10 +1775,10 @@
       <c r="D51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1795,7 +1792,7 @@
       <c r="D52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F52" s="7" t="s">
@@ -1823,13 +1820,13 @@
       <c r="B54" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -1840,13 +1837,13 @@
       <c r="B55" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F55" s="6" t="s">

--- a/assets/Consolidated list of API's.xlsx
+++ b/assets/Consolidated list of API's.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyApplication\lupa\Lupa\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyApplication\Lupa\Lupa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -952,18 +952,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="56.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="100.5">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="84.5">
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="100.5">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="84.5">
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="114.75">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="112.5">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="141">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="138.5">
       <c r="B6" s="3" t="s">
         <v>163</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="72">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="70.5">
       <c r="B7" s="3" t="s">
         <v>162</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="100.5">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="98.5">
       <c r="B8" s="3" t="s">
         <v>161</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="77.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="63.5">
       <c r="B10" s="3" t="s">
         <v>160</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="39">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="38.5">
       <c r="B11" s="3" t="s">
         <v>159</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="86.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="84.5">
       <c r="B12" s="3" t="s">
         <v>158</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="57.75">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="56.5">
       <c r="B14" s="7" t="s">
         <v>157</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="129">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="126.5">
       <c r="B15" s="7" t="s">
         <v>165</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="51.75">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="51">
       <c r="B16" s="7" t="s">
         <v>156</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="26.25">
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="26">
       <c r="B17" s="7" t="s">
         <v>155</v>
       </c>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="128.25">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="113.5">
       <c r="B18" s="7" t="s">
         <v>154</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="29.25">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="28.5">
       <c r="B19" s="7" t="s">
         <v>153</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="30">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="26">
       <c r="B20" s="7" t="s">
         <v>152</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="57.75">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="56.5">
       <c r="B21" s="7" t="s">
         <v>151</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="114.75">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="98.5">
       <c r="B22" s="7" t="s">
         <v>150</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" ht="51.75">
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="B23" s="7" t="s">
         <v>149</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" ht="51.75">
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="B24" s="7" t="s">
         <v>148</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" ht="26.25">
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="26">
       <c r="B25" s="7" t="s">
         <v>147</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="43.5">
       <c r="B26" s="7" t="s">
         <v>146</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="51.75">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="B27" s="7" t="s">
         <v>145</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="43.5">
       <c r="B29" s="7" t="s">
         <v>144</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="30">
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="29">
       <c r="B30" s="7" t="s">
         <v>143</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" ht="102.75">
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="88.5">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" ht="77.25">
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="76">
       <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" ht="143.25">
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="140.5">
       <c r="B34" s="7" t="s">
         <v>19</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" ht="72">
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="56.5">
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" s="6" customFormat="1" ht="51.75">
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" ht="51.75">
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="72.5">
       <c r="B38" s="7" t="s">
         <v>142</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" ht="30">
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="29">
       <c r="B39" s="7" t="s">
         <v>143</v>
       </c>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="105">
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="87">
       <c r="B40" s="5" t="s">
         <v>120</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="29">
       <c r="B41" s="5" t="s">
         <v>123</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="E42" s="14"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="29">
       <c r="B43" s="5" t="s">
         <v>126</v>
       </c>
@@ -1677,7 +1677,7 @@
     <row r="44" spans="1:7" s="2" customFormat="1">
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="29">
       <c r="B45" s="5" t="s">
         <v>129</v>
       </c>
@@ -1694,7 +1694,7 @@
     <row r="46" spans="1:7" s="2" customFormat="1">
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="45">
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="43.5">
       <c r="B47" s="2" t="s">
         <v>132</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="6" customFormat="1" ht="72">
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="70.5">
       <c r="A48" s="6" t="s">
         <v>137</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="2:6" s="6" customFormat="1" ht="26.25">
+    <row r="49" spans="2:6" s="6" customFormat="1" ht="26">
       <c r="B49" s="7" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:6" s="6" customFormat="1" ht="100.5">
+    <row r="50" spans="2:6" s="6" customFormat="1" ht="98.5">
       <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="6" customFormat="1" ht="51.75">
+    <row r="51" spans="2:6" s="6" customFormat="1" ht="38.5">
       <c r="B51" s="7" t="s">
         <v>32</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:6" s="6" customFormat="1" ht="77.25">
+    <row r="52" spans="2:6" s="6" customFormat="1" ht="76">
       <c r="B52" s="7" t="s">
         <v>33</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:6" s="6" customFormat="1" ht="39">
+    <row r="53" spans="2:6" s="6" customFormat="1" ht="26">
       <c r="B53" s="7" t="s">
         <v>14</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:6" s="6" customFormat="1" ht="45">
+    <row r="54" spans="2:6" s="6" customFormat="1" ht="43.5">
       <c r="B54" s="7" t="s">
         <v>140</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:6" s="6" customFormat="1" ht="30">
+    <row r="55" spans="2:6" s="6" customFormat="1" ht="29">
       <c r="B55" s="7" t="s">
         <v>141</v>
       </c>
@@ -1863,42 +1863,42 @@
     <hyperlink ref="C49" r:id="rId9"/>
     <hyperlink ref="C50" r:id="rId10"/>
     <hyperlink ref="C51" r:id="rId11"/>
-    <hyperlink ref="C52" r:id="rId12"/>
-    <hyperlink ref="C34" r:id="rId13"/>
-    <hyperlink ref="C33" r:id="rId14"/>
-    <hyperlink ref="C53" r:id="rId15"/>
-    <hyperlink ref="C35" r:id="rId16"/>
-    <hyperlink ref="C7" r:id="rId17"/>
-    <hyperlink ref="C8" r:id="rId18"/>
-    <hyperlink ref="C10" r:id="rId19"/>
-    <hyperlink ref="C16" r:id="rId20"/>
-    <hyperlink ref="C17" r:id="rId21"/>
-    <hyperlink ref="C19" r:id="rId22"/>
-    <hyperlink ref="C20" r:id="rId23"/>
-    <hyperlink ref="C21" r:id="rId24"/>
-    <hyperlink ref="C23" r:id="rId25"/>
-    <hyperlink ref="C24" r:id="rId26"/>
-    <hyperlink ref="C12" r:id="rId27"/>
-    <hyperlink ref="C11" r:id="rId28"/>
-    <hyperlink ref="C25" r:id="rId29"/>
-    <hyperlink ref="C26" r:id="rId30"/>
-    <hyperlink ref="C27" r:id="rId31"/>
-    <hyperlink ref="C30" r:id="rId32"/>
-    <hyperlink ref="C22" r:id="rId33"/>
-    <hyperlink ref="C18" r:id="rId34"/>
-    <hyperlink ref="C14" r:id="rId35"/>
-    <hyperlink ref="C6" r:id="rId36"/>
-    <hyperlink ref="C29" r:id="rId37"/>
-    <hyperlink ref="C55" r:id="rId38"/>
-    <hyperlink ref="C54" r:id="rId39"/>
-    <hyperlink ref="C39" r:id="rId40"/>
-    <hyperlink ref="C41" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C45" r:id="rId43"/>
-    <hyperlink ref="C47" r:id="rId44"/>
-    <hyperlink ref="C38" r:id="rId45"/>
-    <hyperlink ref="C40" r:id="rId46"/>
-    <hyperlink ref="C15" r:id="rId47"/>
+    <hyperlink ref="C34" r:id="rId12"/>
+    <hyperlink ref="C33" r:id="rId13"/>
+    <hyperlink ref="C53" r:id="rId14"/>
+    <hyperlink ref="C35" r:id="rId15"/>
+    <hyperlink ref="C7" r:id="rId16"/>
+    <hyperlink ref="C8" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="C16" r:id="rId19"/>
+    <hyperlink ref="C17" r:id="rId20"/>
+    <hyperlink ref="C19" r:id="rId21"/>
+    <hyperlink ref="C20" r:id="rId22"/>
+    <hyperlink ref="C21" r:id="rId23"/>
+    <hyperlink ref="C23" r:id="rId24"/>
+    <hyperlink ref="C24" r:id="rId25"/>
+    <hyperlink ref="C12" r:id="rId26"/>
+    <hyperlink ref="C11" r:id="rId27"/>
+    <hyperlink ref="C25" r:id="rId28"/>
+    <hyperlink ref="C26" r:id="rId29"/>
+    <hyperlink ref="C27" r:id="rId30"/>
+    <hyperlink ref="C30" r:id="rId31"/>
+    <hyperlink ref="C22" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="C14" r:id="rId34"/>
+    <hyperlink ref="C6" r:id="rId35"/>
+    <hyperlink ref="C29" r:id="rId36"/>
+    <hyperlink ref="C55" r:id="rId37"/>
+    <hyperlink ref="C54" r:id="rId38"/>
+    <hyperlink ref="C39" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C43" r:id="rId41"/>
+    <hyperlink ref="C45" r:id="rId42"/>
+    <hyperlink ref="C47" r:id="rId43"/>
+    <hyperlink ref="C38" r:id="rId44"/>
+    <hyperlink ref="C40" r:id="rId45"/>
+    <hyperlink ref="C15" r:id="rId46"/>
+    <hyperlink ref="C52" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId48"/>

--- a/assets/Consolidated list of API's.xlsx
+++ b/assets/Consolidated list of API's.xlsx
@@ -576,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,6 +673,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -952,15 +967,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
@@ -1616,98 +1631,98 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="105">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="105">
+      <c r="B40" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="30">
-      <c r="B41" s="5" t="s">
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="B41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1">
-      <c r="E42" s="14"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="30">
-      <c r="B43" s="5" t="s">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" s="6" customFormat="1">
+      <c r="E42" s="16"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="B43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" s="2" customFormat="1">
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="30">
-      <c r="B45" s="5" t="s">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" s="6" customFormat="1">
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="B45" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1">
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="45">
-      <c r="B47" s="2" t="s">
+    <row r="46" spans="1:7" s="6" customFormat="1">
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="B47" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="14" t="s">
+      <c r="D47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="6" t="s">
         <v>101</v>
       </c>
     </row>
